--- a/artfynd/A 32513-2022.xlsx
+++ b/artfynd/A 32513-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7125672</v>
+        <v>103410817</v>
       </c>
       <c r="B2" t="n">
         <v>78569</v>
@@ -713,24 +713,20 @@
           <t>(L.) Hoffm.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Vänjaurbäck, Ly lm</t>
+          <t>Flakaträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>669661.8776380525</v>
+        <v>669184.2142344908</v>
       </c>
       <c r="R2" t="n">
-        <v>7138407.941147901</v>
+        <v>7138242.52736718</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -754,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2011-08-03</t>
+          <t>2022-08-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2011-08-03</t>
+          <t>2022-08-08</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -774,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Sveaskogs Naturvärdesinventering -Inventerare: Ebba Okfors  ID;29503</t>
+          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -789,19 +785,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103410817</v>
+        <v>7125672</v>
       </c>
       <c r="B3" t="n">
         <v>78569</v>
@@ -834,20 +830,24 @@
           <t>(L.) Hoffm.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Flakaträsk, Ly lm</t>
+          <t>Vänjaurbäck, Ly lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>669184.2142344908</v>
+        <v>669661.8776380525</v>
       </c>
       <c r="R3" t="n">
-        <v>7138242.52736718</v>
+        <v>7138407.941147901</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-08-08</t>
+          <t>2011-08-03</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-08-08</t>
+          <t>2011-08-03</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
+          <t>Sveaskogs Naturvärdesinventering -Inventerare: Ebba Okfors  ID;29503</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,12 +906,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>

--- a/artfynd/A 32513-2022.xlsx
+++ b/artfynd/A 32513-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103410817</v>
+        <v>7125672</v>
       </c>
       <c r="B2" t="n">
         <v>78569</v>
@@ -713,20 +713,24 @@
           <t>(L.) Hoffm.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Flakaträsk, Ly lm</t>
+          <t>Vänjaurbäck, Ly lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>669184.2142344908</v>
+        <v>669661.8776380525</v>
       </c>
       <c r="R2" t="n">
-        <v>7138242.52736718</v>
+        <v>7138407.941147901</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-08-08</t>
+          <t>2011-08-03</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +764,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-08-08</t>
+          <t>2011-08-03</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -770,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
+          <t>Sveaskogs Naturvärdesinventering -Inventerare: Ebba Okfors  ID;29503</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -785,19 +789,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7125672</v>
+        <v>103410817</v>
       </c>
       <c r="B3" t="n">
         <v>78569</v>
@@ -830,24 +834,20 @@
           <t>(L.) Hoffm.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Vänjaurbäck, Ly lm</t>
+          <t>Flakaträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>669661.8776380525</v>
+        <v>669184.2142344908</v>
       </c>
       <c r="R3" t="n">
-        <v>7138407.941147901</v>
+        <v>7138242.52736718</v>
       </c>
       <c r="S3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2011-08-03</t>
+          <t>2022-08-08</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2011-08-03</t>
+          <t>2022-08-08</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Sveaskogs Naturvärdesinventering -Inventerare: Ebba Okfors  ID;29503</t>
+          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,12 +906,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
